--- a/oneamp/ampli_bar_lig_adaptor.xlsx
+++ b/oneamp/ampli_bar_lig_adaptor.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taol9/gitsss/yo/oneamp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAB1C3C-B0B8-9E40-B86D-C521641E312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="37500" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2500,8 +2506,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2564,6 +2570,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2610,7 +2624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2642,9 +2656,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2676,6 +2708,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2851,14 +2901,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2877,7 +2934,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2945,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2899,7 +2956,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2910,7 +2967,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2921,7 +2978,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2989,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +3000,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2954,7 +3011,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2965,7 +3022,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2976,7 +3033,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2987,7 +3044,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +3055,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +3066,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -3020,7 +3077,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -3031,7 +3088,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -3042,7 +3099,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3110,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -3064,7 +3121,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -3075,7 +3132,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3143,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -3097,7 +3154,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -3108,7 +3165,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -3119,7 +3176,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -3130,7 +3187,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -3141,7 +3198,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -3152,7 +3209,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -3163,7 +3220,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -3174,7 +3231,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -3185,7 +3242,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -3196,7 +3253,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -3207,7 +3264,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -3218,7 +3275,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -3229,7 +3286,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -3240,7 +3297,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3308,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -3262,7 +3319,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -3273,7 +3330,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -3284,7 +3341,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -3295,7 +3352,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -3306,7 +3363,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -3317,7 +3374,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,7 +3385,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -3339,7 +3396,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3350,7 +3407,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3361,7 +3418,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3372,7 +3429,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -3383,7 +3440,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -3394,7 +3451,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -3405,7 +3462,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -3416,7 +3473,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -3427,7 +3484,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -3438,7 +3495,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -3449,7 +3506,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -3460,7 +3517,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -3471,7 +3528,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -3482,7 +3539,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -3493,7 +3550,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3504,7 +3561,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -3515,7 +3572,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -3526,7 +3583,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -3537,7 +3594,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -3548,7 +3605,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -3559,7 +3616,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -3570,7 +3627,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -3581,7 +3638,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -3592,7 +3649,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -3603,7 +3660,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -3614,7 +3671,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -3625,7 +3682,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -3636,7 +3693,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -3647,7 +3704,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -3658,7 +3715,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -3669,7 +3726,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -3680,7 +3737,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -3691,7 +3748,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -3702,7 +3759,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -3713,7 +3770,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -3724,7 +3781,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -3735,7 +3792,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -3746,7 +3803,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
@@ -3757,7 +3814,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
@@ -3768,7 +3825,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
@@ -3779,7 +3836,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
@@ -3790,7 +3847,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
@@ -3801,7 +3858,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -3812,7 +3869,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
@@ -3823,7 +3880,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
@@ -3834,7 +3891,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -3845,7 +3902,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -3856,7 +3913,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -3867,7 +3924,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
@@ -3878,7 +3935,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
@@ -3889,7 +3946,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -3900,7 +3957,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
@@ -3911,7 +3968,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
@@ -3922,7 +3979,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
@@ -3933,7 +3990,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
@@ -3944,7 +4001,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
@@ -3955,7 +4012,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -3966,7 +4023,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
@@ -3977,7 +4034,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
@@ -3988,7 +4045,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
@@ -3999,7 +4056,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
@@ -4010,7 +4067,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
@@ -4021,7 +4078,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
@@ -4032,7 +4089,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
@@ -4043,7 +4100,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
@@ -4054,7 +4111,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
@@ -4065,7 +4122,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
@@ -4076,7 +4133,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
@@ -4087,7 +4144,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
@@ -4098,7 +4155,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
@@ -4109,7 +4166,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
@@ -4120,7 +4177,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
@@ -4131,7 +4188,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
@@ -4142,7 +4199,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
@@ -4153,7 +4210,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
@@ -4164,7 +4221,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -4175,7 +4232,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
@@ -4186,7 +4243,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
@@ -4197,7 +4254,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -4208,7 +4265,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
@@ -4219,7 +4276,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
@@ -4230,7 +4287,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
@@ -4241,7 +4298,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
@@ -4252,7 +4309,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
@@ -4263,7 +4320,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
@@ -4274,7 +4331,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
@@ -4285,7 +4342,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
@@ -4296,7 +4353,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
@@ -4307,7 +4364,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
@@ -4318,7 +4375,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
@@ -4329,7 +4386,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
@@ -4340,7 +4397,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
@@ -4351,7 +4408,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
@@ -4362,7 +4419,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
@@ -4373,7 +4430,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
@@ -4384,7 +4441,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
@@ -4395,7 +4452,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
@@ -4406,7 +4463,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
@@ -4417,7 +4474,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
@@ -4428,7 +4485,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
@@ -4439,7 +4496,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
@@ -4450,7 +4507,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
@@ -4461,7 +4518,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
@@ -4472,7 +4529,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
@@ -4483,7 +4540,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
@@ -4494,7 +4551,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
@@ -4505,7 +4562,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>151</v>
       </c>
@@ -4516,7 +4573,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>152</v>
       </c>
@@ -4527,7 +4584,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>153</v>
       </c>
@@ -4538,7 +4595,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>154</v>
       </c>
@@ -4549,7 +4606,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -4560,7 +4617,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>156</v>
       </c>
@@ -4571,7 +4628,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>157</v>
       </c>
@@ -4582,7 +4639,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>158</v>
       </c>
@@ -4593,7 +4650,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>159</v>
       </c>
@@ -4604,7 +4661,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>160</v>
       </c>
@@ -4615,7 +4672,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>161</v>
       </c>
@@ -4626,7 +4683,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>162</v>
       </c>
@@ -4637,7 +4694,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>163</v>
       </c>
@@ -4648,7 +4705,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>164</v>
       </c>
@@ -4659,7 +4716,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>165</v>
       </c>
@@ -4670,7 +4727,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>166</v>
       </c>
@@ -4681,7 +4738,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>167</v>
       </c>
@@ -4692,7 +4749,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>168</v>
       </c>
@@ -4703,7 +4760,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>169</v>
       </c>
@@ -4714,7 +4771,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>170</v>
       </c>
@@ -4725,7 +4782,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>171</v>
       </c>
@@ -4736,7 +4793,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>172</v>
       </c>
@@ -4747,7 +4804,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>173</v>
       </c>
@@ -4758,7 +4815,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>174</v>
       </c>
@@ -4769,7 +4826,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>175</v>
       </c>
@@ -4780,7 +4837,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>176</v>
       </c>
@@ -4791,7 +4848,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>177</v>
       </c>
@@ -4802,7 +4859,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>178</v>
       </c>
@@ -4813,7 +4870,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>179</v>
       </c>
@@ -4824,7 +4881,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>180</v>
       </c>
@@ -4835,7 +4892,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>181</v>
       </c>
@@ -4846,7 +4903,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>182</v>
       </c>
@@ -4857,7 +4914,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>183</v>
       </c>
@@ -4868,7 +4925,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>184</v>
       </c>
@@ -4879,7 +4936,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
@@ -4890,7 +4947,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>186</v>
       </c>
@@ -4901,7 +4958,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>187</v>
       </c>
@@ -4912,7 +4969,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>188</v>
       </c>
@@ -4923,7 +4980,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>189</v>
       </c>
@@ -4934,7 +4991,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>190</v>
       </c>
@@ -4945,7 +5002,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>191</v>
       </c>
@@ -4956,7 +5013,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>192</v>
       </c>
@@ -4967,7 +5024,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>193</v>
       </c>
@@ -4978,7 +5035,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
@@ -4989,7 +5046,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>195</v>
       </c>
@@ -5000,7 +5057,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>196</v>
       </c>
@@ -5011,7 +5068,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>197</v>
       </c>
@@ -5022,7 +5079,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
@@ -5033,7 +5090,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>199</v>
       </c>
@@ -5044,7 +5101,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>200</v>
       </c>
@@ -5055,7 +5112,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>201</v>
       </c>
@@ -5066,7 +5123,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
@@ -5077,7 +5134,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>203</v>
       </c>
@@ -5088,7 +5145,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>204</v>
       </c>
@@ -5099,7 +5156,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>205</v>
       </c>
@@ -5110,7 +5167,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>206</v>
       </c>
@@ -5121,7 +5178,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
@@ -5132,7 +5189,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>208</v>
       </c>
@@ -5143,7 +5200,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>209</v>
       </c>
@@ -5154,7 +5211,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
@@ -5165,7 +5222,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>211</v>
       </c>
@@ -5176,7 +5233,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>212</v>
       </c>
@@ -5187,7 +5244,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>213</v>
       </c>
@@ -5198,7 +5255,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>214</v>
       </c>
@@ -5209,7 +5266,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>215</v>
       </c>
@@ -5220,7 +5277,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
@@ -5231,7 +5288,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>217</v>
       </c>
@@ -5242,7 +5299,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>218</v>
       </c>
@@ -5253,7 +5310,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>219</v>
       </c>
@@ -5264,7 +5321,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>220</v>
       </c>
@@ -5275,7 +5332,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
@@ -5286,7 +5343,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>222</v>
       </c>
@@ -5297,7 +5354,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>223</v>
       </c>
@@ -5308,7 +5365,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>224</v>
       </c>
@@ -5319,7 +5376,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
@@ -5330,7 +5387,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>226</v>
       </c>
@@ -5341,7 +5398,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>227</v>
       </c>
@@ -5352,7 +5409,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>228</v>
       </c>
@@ -5363,7 +5420,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>229</v>
       </c>
@@ -5374,7 +5431,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>230</v>
       </c>
@@ -5385,7 +5442,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>231</v>
       </c>
@@ -5396,7 +5453,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>232</v>
       </c>
@@ -5407,7 +5464,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>233</v>
       </c>
@@ -5418,7 +5475,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>234</v>
       </c>
@@ -5429,7 +5486,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>235</v>
       </c>
@@ -5440,7 +5497,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>236</v>
       </c>
@@ -5451,7 +5508,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>237</v>
       </c>
@@ -5462,7 +5519,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>238</v>
       </c>
@@ -5473,7 +5530,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>239</v>
       </c>
@@ -5484,7 +5541,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>240</v>
       </c>
@@ -5495,7 +5552,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
@@ -5506,7 +5563,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>242</v>
       </c>
@@ -5517,7 +5574,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>243</v>
       </c>
@@ -5528,7 +5585,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>244</v>
       </c>
@@ -5539,7 +5596,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>245</v>
       </c>
@@ -5550,7 +5607,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>246</v>
       </c>
@@ -5561,7 +5618,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>247</v>
       </c>
@@ -5572,7 +5629,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>248</v>
       </c>
@@ -5583,7 +5640,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>249</v>
       </c>
@@ -5594,7 +5651,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>250</v>
       </c>
@@ -5605,7 +5662,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>251</v>
       </c>
@@ -5616,7 +5673,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>252</v>
       </c>
@@ -5627,7 +5684,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
@@ -5638,7 +5695,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
@@ -5649,7 +5706,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>255</v>
       </c>
@@ -5660,7 +5717,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>256</v>
       </c>
@@ -5671,7 +5728,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>257</v>
       </c>
@@ -5682,7 +5739,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>258</v>
       </c>
@@ -5693,7 +5750,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>259</v>
       </c>
@@ -5704,7 +5761,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>260</v>
       </c>
@@ -5715,7 +5772,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>261</v>
       </c>
@@ -5726,7 +5783,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>262</v>
       </c>
@@ -5737,7 +5794,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>263</v>
       </c>
@@ -5748,7 +5805,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>264</v>
       </c>
@@ -5759,7 +5816,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>265</v>
       </c>
@@ -5770,7 +5827,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
@@ -5781,7 +5838,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>267</v>
       </c>
@@ -5792,7 +5849,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>268</v>
       </c>
@@ -5803,7 +5860,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>269</v>
       </c>
@@ -5814,7 +5871,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>270</v>
       </c>
@@ -5825,7 +5882,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>271</v>
       </c>
@@ -5836,7 +5893,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>272</v>
       </c>
@@ -5847,7 +5904,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>273</v>
       </c>
@@ -5858,7 +5915,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>274</v>
       </c>
@@ -5869,7 +5926,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
@@ -5880,7 +5937,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>276</v>
       </c>
